--- a/medicine/Enfance/Paul-Jacques_Bonzon/Paul-Jacques_Bonzon.xlsx
+++ b/medicine/Enfance/Paul-Jacques_Bonzon/Paul-Jacques_Bonzon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul-Jacques Bonzon, né le 31 août 1908 à Sainte-Marie-du-Mont (Manche) et mort le 24 septembre 1978 à Valence, est un écrivain français auteur de plus d'une centaine de livres, dont 88 romans pour la jeunesse, 11 pièces de théâtre et une dizaine de livres scolaires. Ses romans ont été traduits en 18 langues.
 Il est connu principalement pour la série Les Six Compagnons parue chez Hachette dans la collection Bibliothèque verte et la série La Famille HLM, parue dans la bibliothèque rose. La première rend hommage à la vie à Lyon dans les années 1950 et 1960, sur les hauteurs de la Croix-Rousse et la seconde au cadre plus rural du Cotentin, en Normandie, deux lieux qu'il connaît bien.
@@ -512,12 +524,14 @@
           <t>Sa vie à Saint-Laurent-en-Royans</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Instituteur et romancier pour la jeunesse, Paul-Jacques Bonzon a été instituteur et directeur d'école à Saint-Laurent de 1949 à 1957. Par sa présence et ses choix pédagogiques, par l'attention qu'il portait aux enfants, par la haute idée qu'il se faisait du rôle et de la place de l'école, il a profondément marqué la commune.
 Il était aussi écrivain. Lorsqu'il arrive à Saint-Laurent, il a déjà publié trois ouvrages : Loutsi-chien, Delph le marin et Le jongleur à l'étoile. Si le plus grand nombre de ses ouvrages a été publié après son départ à partir de 1961, on peut affirmer que c'est pendant son séjour à Saint-Laurent qu'il a acquis la notoriété qui fut la sienne. Sur la centaine de livres publiés, il en a écrit une dizaine à Saint-Laurent qui resteront parmi les plus importants.
 C'est à Saint-Laurent qu'il écrit Du gui pour Christmas avec lequel il obtient, en 1953, le second Prix de la Jeunesse. Son petit héros, comme l'auteur, est originaire de la Manche. C'est aussi à Saint-Laurent qu'il écrit des ouvrages d'inspiration italienne et espagnole notamment Le petit passeur du lac. Avec Les orphelins de Simitra, il obtient le Prix Enfance du Monde (1955) et le prix du New-York Herald Tribune (1955). Toujours à Saint-Laurent, il écrit durant les grandes vacances de 1956 Le Viking au bracelet d’argent et surtout Mon Vercors en feu. C'est en 1958, alors qu'il vient de quitter Saint-Laurent, qu'il obtient la consécration avec L'éventail de Séville qui lui vaut le prix du Salon de l’Enfance.
-Il quitte Saint-Laurent pour Valence en 1957. L'école de Saint-Laurent porte son nom[1].
+Il quitte Saint-Laurent pour Valence en 1957. L'école de Saint-Laurent porte son nom.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul-Jacques Bonzon est né en 1908 dans le département de la Manche, en Normandie. Fils unique de famille aisée, il est scolarisé à Saint-Lô. 
 Elève de l'école normale d'instituteurs de Saint-Lô, promotion 1924-1927, il fut d'abord nommé en Normandie, dans son département d'origine. En 1935, il épouse une institutrice de la Drôme et obtient sa mutation dans ce département où il fut instituteur et directeur d'école pendant vingt-cinq ans. 
@@ -592,14 +608,93 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(listes exhaustives)
-Séries pour la jeunesse
-Les Six Compagnons
-Trente-huit titres parus de 1961 à 1978, onze titres posthumes de 1982 à 1994 chez Hachette dans la collection Bibliothèque verte, et trois BD posthumes.
-Diabolo le petit chat
-Sept titres paru de 1974 à 1980 chez Hachette dans la collection Bibliothèque rose :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Séries pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Les Six Compagnons</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trente-huit titres parus de 1961 à 1978, onze titres posthumes de 1982 à 1994 chez Hachette dans la collection Bibliothèque verte, et trois BD posthumes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Séries pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Diabolo le petit chat</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sept titres paru de 1974 à 1980 chez Hachette dans la collection Bibliothèque rose :
 1974 : Diabolo le petit chat (illustrations de Pierre Dessons)
 1974 : Diabolo et la fleur qui sourit (illustrations de Pierre Dessons)
 1976 : Diabolo pompier (illustrations de Pierre Dessons)
@@ -607,8 +702,47 @@
 1977 : Diabolo et le cheval de bois (illustrations de Pierre Dessons)
 1978 : Diabolo pâtissier (illustrations de Pierre Dessons)
 1980 : Diabolo sur la lune (illustrations de Rosine Daems)
-La Famille HLM
-Vingt titres parus de 1966 à 1978 chez Hachette dans la collection Bibliothèque rose :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Séries pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>La Famille HLM</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vingt titres parus de 1966 à 1978 chez Hachette dans la collection Bibliothèque rose :
 1966 : La Famille H.L.M. et l'âne Tulipe/Où est passé l'âne Tulipe ? (illustrations de Jacques Fromont)
 1966 : Le Secret de la malle-arrière (illustrations de Jacques Fromont)
 1966 : Les Étranges Locataires (illustrations de Jacques Fromont)
@@ -629,7 +763,43 @@
 1976 : Les Espions du X-35 (illustrations de Jacques Fromont)
 1977 : Le Cavalier de la mer (illustrations de Philippe Degrave)
 1978 : L'Homme au nœud papillon (illustrations de François Jeannequin)
-Romans hors-série pour la jeunesse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans hors-série pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1945 : Loutsi-chien et ses jeunes maîtres
 1947 : Delph le marin
 1948 : Le Jongleur à l'étoile
@@ -641,7 +811,7 @@
 1956 : La Ballerine de Majorque
 1957 : La Promesse de Primerose
 1957 : Le Viking au bracelet d'argent
-1957 : La Disparue de Montélimar[2]
+1957 : La Disparue de Montélimar
 1957 : Mon Vercors en feu (2 versions)
 1958 : Le Voyageur sans visage
 1958 : La Princesse sans nom
@@ -654,7 +824,43 @@
 1963 : Le Cheval de verre
 1965 : Contes de mon chalet
 1971 : Soleil de mon Espagne
-Théâtre
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1945 : La Nuit du 3 mars
 1953 : Coquette chambre à louer
 1954 : Camping interdit
@@ -666,11 +872,46 @@
 1957 : Madame a son robot
 1957 : Plus on est de fous
 1962 : Devant le rideau
-Ouvrages scolaires
-Note : ils ont tous été publiés chez l’éditeur Delagrave.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ouvrages scolaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note : ils ont tous été publiés chez l’éditeur Delagrave.
 1960 : La Roulotte du bonheur (CM2)
 1962 : Le Chalet du bonheur (CE1, CE2, CM1)
-1964 : La Maison aux mille bonheurs[3] (CE1, CE2)
+1964 : La Maison aux mille bonheurs (CE1, CE2)
 1965 : Le Jardin de Paradis (CP, CE1)
 1967 : Le Relais des cigales (CM1, CM2)
 1968 : Le Château de Pompon (CP)
@@ -679,37 +920,74 @@
 1976 : Yani (CM1, CM2)
 1978 : Ahmed et Magali (CM1, CM2)
 1980 : Pompon le petit âne des tropiques (avec M. Pédoja)
-Contes et nouvelles
-Publiés dans la revue Francs-Jeux et dans le bulletin de l'Académie drômoise.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Paul-Jacques_Bonzon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paul-Jacques_Bonzon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Contes et nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Publiés dans la revue Francs-Jeux et dans le bulletin de l'Académie drômoise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Prix et Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Second Prix "Jeunesse" en 1953 pour Du gui pour Christmas.
 Prix "Enfance du Monde" en 1955 pour Les Orphelins de Simitra.
@@ -717,31 +995,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Paul-Jacques_Bonzon</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paul-Jacques_Bonzon</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul-Jacques_Bonzon</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Yves Marion, De la Manche à la Drôme, itinéraire de l'écrivain Paul-Jacques Bonzon, romancier pour la jeunesse, éditions Eurocibles, Marigny (Manche), 2008.  (ISBN 9782914541831)
 Raymond Perrin, Fictions et journaux pour la jeunesse au XXe siècle, L'Harmattan, 2009, 554 p. (ISBN 978-2-296-09208-2 et 2-296-09208-X, lire en ligne).</t>
